--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Zp3-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Zp3-Mertk.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H2">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I2">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J2">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N2">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O2">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P2">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q2">
-        <v>0.6685941444182222</v>
+        <v>0.9101757016177777</v>
       </c>
       <c r="R2">
-        <v>6.017347299763999</v>
+        <v>8.191581314559999</v>
       </c>
       <c r="S2">
-        <v>0.07917438067975524</v>
+        <v>0.1066968082043811</v>
       </c>
       <c r="T2">
-        <v>0.07917438067975524</v>
+        <v>0.1066968082043811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H3">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I3">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J3">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.709383</v>
       </c>
       <c r="O3">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P3">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q3">
-        <v>0.2219032161904444</v>
+        <v>0.3224712036497777</v>
       </c>
       <c r="R3">
-        <v>1.997128945714</v>
+        <v>2.902240832848</v>
       </c>
       <c r="S3">
-        <v>0.02627760033407412</v>
+        <v>0.03780220467993233</v>
       </c>
       <c r="T3">
-        <v>0.02627760033407412</v>
+        <v>0.03780220467993233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H4">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I4">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J4">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N4">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O4">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P4">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q4">
-        <v>0.3657061048955555</v>
+        <v>0.3306397112231111</v>
       </c>
       <c r="R4">
-        <v>3.29135494406</v>
+        <v>2.975757401008</v>
       </c>
       <c r="S4">
-        <v>0.04330662272118169</v>
+        <v>0.03875977109740409</v>
       </c>
       <c r="T4">
-        <v>0.04330662272118169</v>
+        <v>0.03875977109740409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H5">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I5">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J5">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N5">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O5">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P5">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q5">
-        <v>2.864432881938222</v>
+        <v>3.390295046332444</v>
       </c>
       <c r="R5">
-        <v>25.779895937444</v>
+        <v>30.512655416992</v>
       </c>
       <c r="S5">
-        <v>0.3392038373646339</v>
+        <v>0.397432781024409</v>
       </c>
       <c r="T5">
-        <v>0.3392038373646339</v>
+        <v>0.397432781024409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.178973</v>
       </c>
       <c r="I6">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J6">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N6">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O6">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P6">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q6">
-        <v>0.7015812791482222</v>
+        <v>0.6572238551644445</v>
       </c>
       <c r="R6">
-        <v>6.314231512334</v>
+        <v>5.915014696479999</v>
       </c>
       <c r="S6">
-        <v>0.08308069063543097</v>
+        <v>0.07704412180767339</v>
       </c>
       <c r="T6">
-        <v>0.08308069063543097</v>
+        <v>0.07704412180767341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.178973</v>
       </c>
       <c r="I7">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J7">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.709383</v>
       </c>
       <c r="O7">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P7">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q7">
         <v>0.2328514892954444</v>
@@ -883,10 +883,10 @@
         <v>2.095663403659</v>
       </c>
       <c r="S7">
-        <v>0.02757408602698347</v>
+        <v>0.02729638975123269</v>
       </c>
       <c r="T7">
-        <v>0.02757408602698347</v>
+        <v>0.02729638975123269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.178973</v>
       </c>
       <c r="I8">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J8">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N8">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O8">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P8">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q8">
-        <v>0.3837493328455555</v>
+        <v>0.2387498427987778</v>
       </c>
       <c r="R8">
-        <v>3.45374399561</v>
+        <v>2.148748585189</v>
       </c>
       <c r="S8">
-        <v>0.04544328725875099</v>
+        <v>0.02798783371238018</v>
       </c>
       <c r="T8">
-        <v>0.045443287258751</v>
+        <v>0.02798783371238018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.178973</v>
       </c>
       <c r="I9">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J9">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N9">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O9">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P9">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q9">
-        <v>3.005758429268222</v>
+        <v>2.448079833965111</v>
       </c>
       <c r="R9">
-        <v>27.051825863414</v>
+        <v>22.032718505686</v>
       </c>
       <c r="S9">
-        <v>0.3559394949791897</v>
+        <v>0.2869800897225871</v>
       </c>
       <c r="T9">
-        <v>0.3559394949791896</v>
+        <v>0.2869800897225872</v>
       </c>
     </row>
   </sheetData>
